--- a/excel_params/0.6_V2av.xlsx
+++ b/excel_params/0.6_V2av.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\毕设\CODE\dp_crystmorph\regionI_double_peak\region_I_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFDD1AE-41A3-4073-AD24-A9606D47658C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6211F6D-5322-427E-A809-A9EB00161233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="8325" xr2:uid="{1FBA3FC8-8A7D-407D-9BB9-9464A34D88F1}"/>
+    <workbookView xWindow="0" yWindow="1875" windowWidth="19785" windowHeight="7590" xr2:uid="{11B9719E-92F3-4832-A4D7-AF967B604153}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>V2Av_n</t>
   </si>
   <si>
-    <t>nw/(nw+nn)</t>
+    <t>nn/(nw+nn)</t>
   </si>
 </sst>
 </file>
@@ -405,11 +405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5299166-BAB8-409A-A352-FB8F61349643}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E92DF24-E5EA-444F-991E-BF545545996F}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D19"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
         <v>9771506219.707943</v>
       </c>
       <c r="D2">
-        <v>6.3908565787519106E-2</v>
+        <v>0.70512926598618697</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -453,7 +453,7 @@
         <v>53439788928.571548</v>
       </c>
       <c r="D3">
-        <v>0.34899557469514553</v>
+        <v>0.29516116621043526</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -467,7 +467,7 @@
         <v>24766126310.398685</v>
       </c>
       <c r="D4">
-        <v>0.14437461780326424</v>
+        <v>0.55034868339769694</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -481,7 +481,7 @@
         <v>10557030504.184618</v>
       </c>
       <c r="D5">
-        <v>5.0830048344483417E-2</v>
+        <v>0.80581185690489787</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -495,7 +495,7 @@
         <v>21917469866.395718</v>
       </c>
       <c r="D6">
-        <v>0.31709270767206682</v>
+        <v>0.41616296092353672</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -509,7 +509,7 @@
         <v>81335454867.742371</v>
       </c>
       <c r="D7">
-        <v>0.40322067528157146</v>
+        <v>0.17453137394906174</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -523,7 +523,7 @@
         <v>54704048244.8853</v>
       </c>
       <c r="D8">
-        <v>0.30438293687701706</v>
+        <v>0.52646421761301887</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -551,7 +551,7 @@
         <v>9771506219.707943</v>
       </c>
       <c r="D10">
-        <v>6.3908565787519106E-2</v>
+        <v>0.70512926598618697</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -565,7 +565,7 @@
         <v>57108755847.807503</v>
       </c>
       <c r="D11">
-        <v>0.2852079841681685</v>
+        <v>0.2707738415872038</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -579,7 +579,7 @@
         <v>25369248600.827522</v>
       </c>
       <c r="D12">
-        <v>0.12214749525026973</v>
+        <v>0.8559797461224482</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -593,7 +593,7 @@
         <v>16675025687.115005</v>
       </c>
       <c r="D13">
-        <v>8.1236607389943566E-2</v>
+        <v>0.70067270805137438</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -607,7 +607,7 @@
         <v>18711506064.134609</v>
       </c>
       <c r="D14">
-        <v>8.7924236756899921E-2</v>
+        <v>0.69676763993693058</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -621,7 +621,7 @@
         <v>21174368937.553013</v>
       </c>
       <c r="D15">
-        <v>9.2849707269425458E-2</v>
+        <v>0.70079743771858372</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>24650897483.721775</v>
       </c>
       <c r="D16">
-        <v>0.1664053106832446</v>
+        <v>0.65185664102291996</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -649,7 +649,7 @@
         <v>22806635015.351555</v>
       </c>
       <c r="D17">
-        <v>0.15867789217272274</v>
+        <v>0.65593370386061733</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -663,7 +663,7 @@
         <v>20886306434.68013</v>
       </c>
       <c r="D18">
-        <v>0.13672471392115582</v>
+        <v>0.6604347298232609</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -677,7 +677,21 @@
         <v>17643307303.124405</v>
       </c>
       <c r="D19">
-        <v>0.10642113595580711</v>
+        <v>0.65215554395255293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>152872062813.96289</v>
+      </c>
+      <c r="C20">
+        <v>54661699091.539337</v>
+      </c>
+      <c r="D20">
+        <v>0.57579862182544272</v>
       </c>
     </row>
   </sheetData>
